--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCheque.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCheque.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB15F8E-9867-4194-A03D-AB9DB77392ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC8C7D9-6362-4D15-951A-9CF0E98D08FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>備註說明</t>
   </si>
@@ -699,6 +699,26 @@
 320:中期擔保放款
 330:長期擔保放款
 340:三十年房貸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票銀行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票分行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BranchItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1382,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1577,7 +1597,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A40" si="0">A10+1</f>
+        <f t="shared" ref="A11:A42" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1873,58 +1893,54 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="4">
+        <v>50</v>
+      </c>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="4">
+        <v>50</v>
+      </c>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>58</v>
@@ -1933,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1942,10 +1958,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>58</v>
@@ -1953,41 +1969,41 @@
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>58</v>
@@ -1996,67 +2012,69 @@
         <v>1</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="4">
-        <v>10</v>
-      </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="4">
-        <v>7</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="17">
-        <v>3</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>167</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10</v>
+      </c>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
@@ -2064,75 +2082,80 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="4">
+        <v>7</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="17">
-        <v>5</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="4">
-        <v>16</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="20"/>
+      <c r="E36" s="17">
+        <v>3</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>40</v>
+      <c r="B37" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5</v>
+      </c>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>10</v>
+      <c r="B38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38" s="4">
-        <v>6</v>
-      </c>
-      <c r="G38" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
@@ -2140,15 +2163,15 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
@@ -2156,10 +2179,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>52</v>
@@ -2168,6 +2191,41 @@
         <v>6</v>
       </c>
       <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="4">
+        <v>6</v>
+      </c>
+      <c r="G42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCheque.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCheque.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC8C7D9-6362-4D15-951A-9CF0E98D08FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="提出檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="175">
   <si>
     <t>備註說明</t>
   </si>
@@ -721,11 +720,19 @@
     <t>BranchItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>AcDate = ,AND TellerNo = ,AND TxtNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findTxSeqFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1065,8 +1072,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{320D310B-B9A2-48B9-847C-BA567BDA9E3F}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{174324E0-FCC3-4534-B8E9-DAA2D8B879D8}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1157,23 +1164,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1209,23 +1199,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1401,11 +1374,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2244,12 +2217,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2342,6 +2315,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2350,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9848F1-5630-4BA6-AD9C-68E4999FA33B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCheque.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCheque.xlsx
@@ -1,36 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569F1ABD-00A3-470E-83F5-3C1E0AE60F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="提出檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="172">
   <si>
     <t>備註說明</t>
   </si>
@@ -113,9 +105,6 @@
     <t>是否為台支</t>
   </si>
   <si>
-    <t>是否為台新</t>
-  </si>
-  <si>
     <t>入媒體檔</t>
   </si>
   <si>
@@ -220,14 +209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LoanCheque</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -237,10 +218,6 @@
   </si>
   <si>
     <t>BktwFlag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TsibFlag</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -728,11 +705,14 @@
     <t>findTxSeqFirst</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -939,14 +919,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -955,9 +935,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,9 +977,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1013,9 +987,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,8 +1043,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1089,9 +1060,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1129,9 +1100,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1166,7 +1137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1201,7 +1172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1374,11 +1345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1386,305 +1357,277 @@
     <col min="1" max="1" width="5.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="64.5546875" style="5"/>
+    <col min="8" max="16384" width="64.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>78</v>
+        <v>90</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
       </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A42" si="0">A10+1</f>
+        <f t="shared" ref="A11:A41" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>79</v>
+        <v>91</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4">
         <v>7</v>
       </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4">
         <v>8</v>
       </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="16">
+        <v>4</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="17">
-        <v>4</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -1692,18 +1635,18 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -1711,19 +1654,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E18" s="4">
         <v>8</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>109</v>
+      <c r="G18" s="14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1732,19 +1675,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>107</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E19" s="4">
         <v>8</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>110</v>
+      <c r="G19" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1753,18 +1696,18 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4">
         <v>3</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1772,13 +1715,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4">
         <v>16</v>
@@ -1786,7 +1729,7 @@
       <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -1794,18 +1737,18 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4">
         <v>60</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -1813,18 +1756,18 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4">
         <v>8</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -1832,19 +1775,19 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>164</v>
+      <c r="G24" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1853,18 +1796,18 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -1872,18 +1815,18 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E26" s="4">
         <v>50</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -1891,18 +1834,18 @@
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E27" s="4">
         <v>50</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -1910,19 +1853,19 @@
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>165</v>
+      <c r="G28" s="15" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1931,19 +1874,19 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>166</v>
+      <c r="G29" s="15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1952,40 +1895,40 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G30" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>27</v>
+        <v>77</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>166</v>
+        <v>2</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -1994,41 +1937,39 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>90</v>
+      <c r="C33" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>89</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -2036,39 +1977,41 @@
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="4">
+        <v>7</v>
+      </c>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="4">
-        <v>10</v>
-      </c>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="4">
-        <v>7</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="D35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="16">
+        <v>3</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2076,18 +2019,16 @@
       <c r="B36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="17">
-        <v>3</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>167</v>
-      </c>
+      <c r="D36" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="16">
+        <v>5</v>
+      </c>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -2095,110 +2036,91 @@
         <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="17">
-        <v>5</v>
-      </c>
-      <c r="G37" s="20"/>
+      <c r="E37" s="4">
+        <v>16</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>65</v>
+      <c r="B38" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="4">
-        <v>16</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2</v>
-      </c>
-      <c r="G38" s="20"/>
+        <v>171</v>
+      </c>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>37</v>
+      <c r="B39" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="E39" s="4">
+        <v>6</v>
+      </c>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>50</v>
+      <c r="B40" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="4">
-        <v>6</v>
-      </c>
-      <c r="G40" s="19"/>
+        <v>171</v>
+      </c>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>38</v>
+      <c r="B41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B42" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="E41" s="4">
         <v>6</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2217,10 +2139,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
@@ -2234,93 +2156,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2351,388 +2273,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="B2" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="D2" s="28">
+        <v>7</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
+        <v>7</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="31">
+      <c r="D3" s="28">
         <v>7</v>
       </c>
-      <c r="E2" s="31">
-        <v>0</v>
-      </c>
-      <c r="F2" s="31">
-        <v>7</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="31">
-        <v>7</v>
-      </c>
-      <c r="E3" s="31">
+      <c r="E3" s="28">
         <f>F2</f>
         <v>7</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="28">
         <f>E3+D3</f>
         <v>14</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="G3" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="31">
+      <c r="A4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="28">
         <v>7</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="28">
         <f>F3</f>
         <v>14</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <f t="shared" ref="F4:F14" si="0">E4+D4</f>
         <v>21</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="31">
+      <c r="A5" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="28">
         <v>9</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="28">
         <f t="shared" ref="E5:E14" si="1">F4</f>
         <v>21</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="A6" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="28">
         <v>10</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="A7" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="28">
         <v>7</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="28">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="G7" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="A8" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="28">
         <v>8</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="G8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="A9" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="28">
         <v>6</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="G9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="31">
+      <c r="A10" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="28">
         <v>1</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="28">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="G10" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33" t="s">
-        <v>145</v>
+      <c r="G10" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="31">
+      <c r="A11" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="28">
         <v>6</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="28">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33" t="s">
-        <v>148</v>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="A12" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="28">
         <v>10</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33" t="s">
-        <v>151</v>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="31">
+      <c r="A13" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="28">
         <v>7</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="28">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="28">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33" t="s">
-        <v>154</v>
+      <c r="G13" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="A14" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="28">
         <v>10</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="28">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="28">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33" t="s">
-        <v>158</v>
+      <c r="G14" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33" t="s">
-        <v>159</v>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
